--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vip-Adcyap1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vip-Adcyap1r1.xlsx
@@ -534,10 +534,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1950323333333333</v>
+        <v>0.06992366666666666</v>
       </c>
       <c r="H2">
-        <v>0.585097</v>
+        <v>0.209771</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3891553333333333</v>
+        <v>0.06921533333333334</v>
       </c>
       <c r="N2">
-        <v>1.167466</v>
+        <v>0.207646</v>
       </c>
       <c r="O2">
-        <v>0.0354332600195051</v>
+        <v>0.005513961132583326</v>
       </c>
       <c r="P2">
-        <v>0.03543326001950509</v>
+        <v>0.005513961132583327</v>
       </c>
       <c r="Q2">
-        <v>0.07589787268911111</v>
+        <v>0.004839789896222222</v>
       </c>
       <c r="R2">
-        <v>0.6830808542019999</v>
+        <v>0.04355810906599999</v>
       </c>
       <c r="S2">
-        <v>0.0354332600195051</v>
+        <v>0.005513961132583326</v>
       </c>
       <c r="T2">
-        <v>0.03543326001950509</v>
+        <v>0.005513961132583327</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1950323333333333</v>
+        <v>0.06992366666666666</v>
       </c>
       <c r="H3">
-        <v>0.585097</v>
+        <v>0.209771</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>25.349424</v>
       </c>
       <c r="O3">
-        <v>0.7693694993573115</v>
+        <v>0.6731443835632516</v>
       </c>
       <c r="P3">
-        <v>0.7693694993573114</v>
+        <v>0.6731443835632517</v>
       </c>
       <c r="Q3">
-        <v>1.647985770458666</v>
+        <v>0.5908415579893332</v>
       </c>
       <c r="R3">
-        <v>14.831871934128</v>
+        <v>5.317574021903999</v>
       </c>
       <c r="S3">
-        <v>0.7693694993573115</v>
+        <v>0.6731443835632516</v>
       </c>
       <c r="T3">
-        <v>0.7693694993573114</v>
+        <v>0.6731443835632517</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1950323333333333</v>
+        <v>0.06992366666666666</v>
       </c>
       <c r="H4">
-        <v>0.585097</v>
+        <v>0.209771</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.143806333333333</v>
+        <v>4.033719</v>
       </c>
       <c r="N4">
-        <v>6.431419</v>
+        <v>12.101157</v>
       </c>
       <c r="O4">
-        <v>0.1951972406231834</v>
+        <v>0.321341655304165</v>
       </c>
       <c r="P4">
-        <v>0.1951972406231834</v>
+        <v>0.321341655304165</v>
       </c>
       <c r="Q4">
-        <v>0.4181115514047778</v>
+        <v>0.282052422783</v>
       </c>
       <c r="R4">
-        <v>3.763003962643</v>
+        <v>2.538471805047</v>
       </c>
       <c r="S4">
-        <v>0.1951972406231834</v>
+        <v>0.321341655304165</v>
       </c>
       <c r="T4">
-        <v>0.1951972406231834</v>
+        <v>0.321341655304165</v>
       </c>
     </row>
   </sheetData>
